--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>//Remark</t>
   </si>
@@ -37,6 +37,9 @@
     <t>RES</t>
   </si>
   <si>
+    <t>triggerCondition</t>
+  </si>
+  <si>
     <t>skillID</t>
   </si>
   <si>
@@ -46,7 +49,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum|PlantTriggerType</t>
+  </si>
+  <si>
     <t>Frogi</t>
+  </si>
+  <si>
+    <t>CharacterNormalAttack</t>
   </si>
 </sst>
 </file>
@@ -977,20 +986,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1012,36 +1024,42 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1055,7 +1073,10 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
         <v>3001</v>
       </c>
     </row>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -989,7 +989,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1065,7 +1065,7 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>3</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18940" windowHeight="8040"/>
+    <workbookView windowWidth="14420" windowHeight="8480"/>
   </bookViews>
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
@@ -989,7 +989,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1062,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14420" windowHeight="8480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
@@ -989,7 +989,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1065,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -989,7 +989,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1062,10 +1062,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="13710" windowHeight="9250"/>
   </bookViews>
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>//Remark</t>
   </si>
@@ -43,6 +43,9 @@
     <t>skillID</t>
   </si>
   <si>
+    <t>pixelUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -56,6 +59,18 @@
   </si>
   <si>
     <t>CharacterNormalAttack</t>
+  </si>
+  <si>
+    <t>pp_Plant_Idle</t>
+  </si>
+  <si>
+    <t>Cookee</t>
+  </si>
+  <si>
+    <t>TurnStart</t>
+  </si>
+  <si>
+    <t>pp_Plant_Idle2</t>
   </si>
 </sst>
 </file>
@@ -986,15 +1001,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
+    <col min="9" max="9" width="14.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1002,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1027,39 +1043,45 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1074,10 +1096,42 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>3001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>3002</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13710" windowHeight="9250"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>//Remark</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>skillID</t>
+  </si>
+  <si>
+    <t>essence</t>
   </si>
   <si>
     <t>pixelUrl</t>
@@ -236,12 +239,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -562,7 +571,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,16 +595,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -604,90 +613,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,16 +1016,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
-    <col min="9" max="9" width="14.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="14.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1018,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1037,51 +1052,57 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1096,21 +1117,24 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>3001</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1125,13 +1149,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>3002</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>//Remark</t>
   </si>
@@ -64,7 +64,7 @@
     <t>CharacterNormalAttack</t>
   </si>
   <si>
-    <t>pp_Plant_Idle</t>
+    <t>pp_Frog_Idle</t>
   </si>
   <si>
     <t>Cookee</t>
@@ -73,7 +73,16 @@
     <t>TurnStart</t>
   </si>
   <si>
-    <t>pp_Plant_Idle2</t>
+    <t>pp_Cook_Idle</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>FirstTurn</t>
+  </si>
+  <si>
+    <t>pp_Hero_Idle</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="14.5454545454545" customWidth="1"/>
@@ -1105,10 +1114,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1143,22 +1152,54 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5">
-        <v>3002</v>
+        <v>3101</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>3201</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>//Remark</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>pp_Hero_Idle</t>
+  </si>
+  <si>
+    <t>Unstable</t>
+  </si>
+  <si>
+    <t>SecondTurn</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="14.5454545454545" customWidth="1"/>
@@ -1202,6 +1208,38 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>3301</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>//Remark</t>
   </si>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>SecondTurn</t>
+  </si>
+  <si>
+    <t>pp_Unstable_Idle</t>
+  </si>
+  <si>
+    <t>Maleficia</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>pp_Maleficia_Idle</t>
+  </si>
+  <si>
+    <t>Beneficia</t>
+  </si>
+  <si>
+    <t>pp_Beneficia_Idle</t>
   </si>
 </sst>
 </file>
@@ -1031,16 +1049,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="14.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="18.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1237,7 +1255,71 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>//Remark</t>
   </si>
@@ -49,6 +49,9 @@
     <t>pixelUrl</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>pp_Frog_Idle</t>
   </si>
   <si>
+    <t>Attack the foe in range if character hit it with normal attack.</t>
+  </si>
+  <si>
     <t>Cookee</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>pp_Cook_Idle</t>
   </si>
   <si>
+    <t>Apply burning by 2 levels every turn.</t>
+  </si>
+  <si>
     <t>Hero</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>pp_Hero_Idle</t>
   </si>
   <si>
+    <t>Attract the attack from foes.</t>
+  </si>
+  <si>
     <t>Unstable</t>
   </si>
   <si>
@@ -94,6 +106,9 @@
     <t>pp_Unstable_Idle</t>
   </si>
   <si>
+    <t>Suicide bombing when the second turn start.</t>
+  </si>
+  <si>
     <t>Maleficia</t>
   </si>
   <si>
@@ -103,10 +118,16 @@
     <t>pp_Maleficia_Idle</t>
   </si>
   <si>
+    <t>Increase ATK of character in same row by 1.</t>
+  </si>
+  <si>
     <t>Beneficia</t>
   </si>
   <si>
     <t>pp_Beneficia_Idle</t>
+  </si>
+  <si>
+    <t>Increase DEF and RES of character in same column by 1.</t>
   </si>
 </sst>
 </file>
@@ -1049,16 +1070,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="18.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="64.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1066,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1097,45 +1119,51 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
+      <c r="K3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -1150,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>3001</v>
@@ -1159,15 +1187,18 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1182,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>3101</v>
@@ -1191,15 +1222,18 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1214,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>3201</v>
@@ -1223,15 +1257,18 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1246,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>3301</v>
@@ -1255,15 +1292,18 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1278,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1287,15 +1327,18 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2002</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1310,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1319,7 +1362,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -118,7 +118,7 @@
     <t>pp_Maleficia_Idle</t>
   </si>
   <si>
-    <t>Increase ATK of character in same row by 1.</t>
+    <t>Increase ATK of units in same row by 1.</t>
   </si>
   <si>
     <t>Beneficia</t>
@@ -127,7 +127,7 @@
     <t>pp_Beneficia_Idle</t>
   </si>
   <si>
-    <t>Increase DEF and RES of character in same column by 1.</t>
+    <t>Increase DEF and RES of units in same column by 1.</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -127,7 +127,7 @@
     <t>pp_Beneficia_Idle</t>
   </si>
   <si>
-    <t>Increase DEF and RES of units in same column by 1.</t>
+    <t>Increase DEF of units in same column by 1.</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1306,7 +1306,7 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>//Remark</t>
   </si>
@@ -100,13 +100,31 @@
     <t>Unstable</t>
   </si>
   <si>
+    <t>pp_Unstable_Idle</t>
+  </si>
+  <si>
+    <t>Hit nearby tiles with electricity that can be transmitted by water.</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
     <t>SecondTurn</t>
   </si>
   <si>
-    <t>pp_Unstable_Idle</t>
+    <t>pp_Void_Idle</t>
   </si>
   <si>
     <t>Suicide bombing when the second turn start.</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>pp_Bubble_Idle</t>
+  </si>
+  <si>
+    <t>Random effect from fragile, burning and reducing movement.</t>
   </si>
   <si>
     <t>Maleficia</t>
@@ -1070,17 +1088,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="18.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="64.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="68.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1271,77 +1289,77 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>3301</v>
+        <v>3102</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>2001</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>3301</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>2002</v>
+        <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1350,22 +1368,92 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>3103</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>2001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>2002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1327,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15860" windowHeight="9410"/>
   </bookViews>
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>Apply burning by 2 levels every turn.</t>
   </si>
   <si>
-    <t>Hero</t>
+    <t>Hero Grass</t>
   </si>
   <si>
     <t>FirstTurn</t>
@@ -97,7 +97,7 @@
     <t>Attract the attack from foes.</t>
   </si>
   <si>
-    <t>Unstable</t>
+    <t>Unstable Grass</t>
   </si>
   <si>
     <t>pp_Unstable_Idle</t>
@@ -106,7 +106,7 @@
     <t>Hit nearby tiles with electricity that can be transmitted by water.</t>
   </si>
   <si>
-    <t>Void</t>
+    <t>Void Grass</t>
   </si>
   <si>
     <t>SecondTurn</t>
@@ -118,7 +118,7 @@
     <t>Suicide bombing when the second turn start.</t>
   </si>
   <si>
-    <t>Bubble</t>
+    <t>Bubblia</t>
   </si>
   <si>
     <t>pp_Bubble_Idle</t>
@@ -1091,11 +1091,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
+    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
     <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="18.1818181818182" customWidth="1"/>
     <col min="11" max="11" width="68.4545454545455" customWidth="1"/>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15860" windowHeight="9410"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1185,7 +1185,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -82,7 +82,7 @@
     <t>pp_Cook_Idle</t>
   </si>
   <si>
-    <t>Apply burning by 2 levels every turn.</t>
+    <t>Apply burning by 3 levels every turn.</t>
   </si>
   <si>
     <t>Hero Grass</t>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1220,10 +1220,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>41</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,7 +137,7 @@
     <t>pp_Bubble_Idle</t>
   </si>
   <si>
-    <t>Random effect from fragile, burning and reducing movement.</t>
+    <t>Random effect from giving buff of ATKUP, DEFUP, RESUP.</t>
   </si>
   <si>
     <t>Maleficia</t>
@@ -151,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1091,7 +1104,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1220,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1325,7 +1338,7 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1360,16 +1373,16 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -95,7 +95,7 @@
     <t>pp_Cook_Idle</t>
   </si>
   <si>
-    <t>Apply burning by 3 levels every turn.</t>
+    <t>Apply burning according to ATK every turn.</t>
   </si>
   <si>
     <t>Hero Grass</t>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1233,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>3</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>//Remark</t>
   </si>
@@ -38,6 +38,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>rarity</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
@@ -71,12 +74,18 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum|Rarity</t>
+  </si>
+  <si>
     <t>enum|PlantTriggerType</t>
   </si>
   <si>
     <t>Frogi</t>
   </si>
   <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
     <t>CharacterNormalAttack</t>
   </si>
   <si>
@@ -89,6 +98,9 @@
     <t>Cookee</t>
   </si>
   <si>
+    <t>Rare</t>
+  </si>
+  <si>
     <t>TurnStart</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>Hero Grass</t>
   </si>
   <si>
+    <t>Legendary</t>
+  </si>
+  <si>
     <t>FirstTurn</t>
   </si>
   <si>
@@ -138,6 +153,21 @@
   </si>
   <si>
     <t>Random effect from giving buff of ATKUP, DEFUP, RESUP.</t>
+  </si>
+  <si>
+    <t>Gogo Grass</t>
+  </si>
+  <si>
+    <t>pp_Gogo_Idle</t>
+  </si>
+  <si>
+    <t>Alyfen</t>
+  </si>
+  <si>
+    <t>ActionEndDead</t>
+  </si>
+  <si>
+    <t>pp_Alyfen_Idle</t>
   </si>
   <si>
     <t>Maleficia</t>
@@ -171,10 +201,31 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,141 +701,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1101,18 +1161,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="18.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="68.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="23.3636363636364" customWidth="1"/>
+    <col min="11" max="11" width="18.1818181818182" customWidth="1"/>
+    <col min="12" max="12" width="68.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1120,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1139,335 +1200,435 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
+      <c r="L3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
         <v>3001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
         <v>3101</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6">
         <v>3201</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
+      <c r="J6">
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
         <v>3102</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
         <v>3301</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
         <v>3103</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>2001</v>
+        <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>3104</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>3401</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>2001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>2002</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13">
         <v>-1</v>
       </c>
-      <c r="I11">
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>43</v>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>//Remark</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>pp_Alyfen_Idle</t>
+  </si>
+  <si>
+    <t>Revive dead character in range and apply 1 level Sunrise.</t>
   </si>
   <si>
     <t>Maleficia</t>
@@ -1164,7 +1167,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1520,7 +1523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -1531,13 +1534,13 @@
         <v>28</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1553,6 +1556,9 @@
       </c>
       <c r="K11" t="s">
         <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1560,7 +1566,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1578,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1587,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1598,7 +1604,7 @@
         <v>2002</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -1616,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1625,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>//Remark</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>pp_Gogo_Idle</t>
+  </si>
+  <si>
+    <t>Can control random foe to hit other foe or help us.</t>
   </si>
   <si>
     <t>Alyfen</t>
@@ -1167,7 +1170,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1488,7 +1491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -1521,6 +1524,9 @@
       </c>
       <c r="K10" t="s">
         <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1528,7 +1534,7 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>28</v>
@@ -1546,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3401</v>
@@ -1555,10 +1561,10 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1566,7 +1572,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1584,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1593,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1604,7 +1610,7 @@
         <v>2002</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1631,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>//Remark</t>
   </si>
@@ -92,7 +92,7 @@
     <t>pp_Frog_Idle</t>
   </si>
   <si>
-    <t>Attack the foe in range if character hit it with normal attack.</t>
+    <t>Attack the foe in range if character hit the foe with normal attack.</t>
   </si>
   <si>
     <t>Cookee</t>
@@ -107,7 +107,7 @@
     <t>pp_Cook_Idle</t>
   </si>
   <si>
-    <t>Apply burning according to ATK every turn.</t>
+    <t>Apply Burning according to ATK every turn.</t>
   </si>
   <si>
     <t>Hero Grass</t>
@@ -152,7 +152,7 @@
     <t>pp_Bubble_Idle</t>
   </si>
   <si>
-    <t>Random effect from giving buff of ATKUP, DEFUP, RESUP.</t>
+    <t>Random effect from giving buff of HealUP, Regen and Shield. Effect level according to ATK.</t>
   </si>
   <si>
     <t>Gogo Grass</t>
@@ -161,7 +161,7 @@
     <t>pp_Gogo_Idle</t>
   </si>
   <si>
-    <t>Can control random foe to hit other foe or help us.</t>
+    <t>Can apply Charm according to ATK every turn, controling random foe to hit other foes.</t>
   </si>
   <si>
     <t>Alyfen</t>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t>Revive dead character in range and apply 1 level Sunrise.</t>
+  </si>
+  <si>
+    <t>Motorhome</t>
+  </si>
+  <si>
+    <t>pp_Motorhome_Idle</t>
+  </si>
+  <si>
+    <t>Giving buff of MOVUP.</t>
+  </si>
+  <si>
+    <t>Helper Grass</t>
+  </si>
+  <si>
+    <t>pp_Helper_Idle</t>
+  </si>
+  <si>
+    <t>Random effect from giving buff of ATKUP, DEFUP, RESUP. Effect level according to ATK.</t>
   </si>
   <si>
     <t>Maleficia</t>
@@ -1167,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1464,16 +1482,16 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -1502,10 +1520,10 @@
         <v>28</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1546,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
@@ -1569,57 +1587,57 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>2001</v>
+        <v>1009</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>3105</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
         <v>50</v>
       </c>
-      <c r="I12">
-        <v>-1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>51</v>
-      </c>
-      <c r="L12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>2002</v>
+        <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1628,19 +1646,95 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I13">
+        <v>3106</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>2001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14">
         <v>-1</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" t="s">
-        <v>55</v>
+      <c r="K14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>2002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -152,7 +152,7 @@
     <t>pp_Bubble_Idle</t>
   </si>
   <si>
-    <t>Random effect from giving buff of HealUP, Regen and Shield. Effect level according to ATK.</t>
+    <t>Random effect from giving buff of HealUP, Regen and Shield. Buff level equal to ATK.</t>
   </si>
   <si>
     <t>Gogo Grass</t>
@@ -161,7 +161,7 @@
     <t>pp_Gogo_Idle</t>
   </si>
   <si>
-    <t>Can apply Charm according to ATK every turn, controling random foe to hit other foes.</t>
+    <t>Can apply Charm whose level equal to ATK every turn, controling random foe to hit other foes.</t>
   </si>
   <si>
     <t>Alyfen</t>
@@ -182,7 +182,7 @@
     <t>pp_Motorhome_Idle</t>
   </si>
   <si>
-    <t>Giving buff of MOVUP.</t>
+    <t>Giving buff of MOVUP. Buff level equal to ATK.</t>
   </si>
   <si>
     <t>Helper Grass</t>
@@ -191,7 +191,7 @@
     <t>pp_Helper_Idle</t>
   </si>
   <si>
-    <t>Random effect from giving buff of ATKUP, DEFUP, RESUP. Effect level according to ATK.</t>
+    <t>Random effect from giving buff of ATKUP, DEFUP, RESUP. Buff level according to ATK.</t>
   </si>
   <si>
     <t>Maleficia</t>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>//Remark</t>
   </si>
@@ -56,6 +56,12 @@
     <t>triggerCondition</t>
   </si>
   <si>
+    <t>findTargetType</t>
+  </si>
+  <si>
+    <t>findTargetDelta</t>
+  </si>
+  <si>
     <t>skillID</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>enum|PlantTriggerType</t>
   </si>
   <si>
+    <t>enum|PlantFindTargetType</t>
+  </si>
+  <si>
     <t>Frogi</t>
   </si>
   <si>
@@ -89,10 +98,13 @@
     <t>CharacterNormalAttack</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>pp_Frog_Idle</t>
   </si>
   <si>
-    <t>Attack the foe in range if character hit the foe with normal attack.</t>
+    <t>Attack the foe in range if character hit the foe with &lt;sprite="SkillType" name="NSkill"&gt; Normal Attack.</t>
   </si>
   <si>
     <t>Cookee</t>
@@ -104,10 +116,13 @@
     <t>TurnStart</t>
   </si>
   <si>
+    <t>LowBuff</t>
+  </si>
+  <si>
     <t>pp_Cook_Idle</t>
   </si>
   <si>
-    <t>Apply Burning according to ATK every turn.</t>
+    <t>Apply &lt;sprite="BuffS" name="Burn"&gt; Burning whose level equal to &lt;sprite="Common" name="ATK"&gt; ATK every turn.</t>
   </si>
   <si>
     <t>Hero Grass</t>
@@ -122,16 +137,19 @@
     <t>pp_Hero_Idle</t>
   </si>
   <si>
-    <t>Attract the attack from foes.</t>
+    <t>Apply 5 &lt;sprite="BuffS" name="Hated"&gt; Hated to attract the attack from foes when battle starts.</t>
   </si>
   <si>
     <t>Unstable Grass</t>
   </si>
   <si>
+    <t>Random</t>
+  </si>
+  <si>
     <t>pp_Unstable_Idle</t>
   </si>
   <si>
-    <t>Hit nearby tiles with electricity that can be transmitted by water.</t>
+    <t>Hit nearby tiles with electricity that can be transmitted by &lt;sprite="Tile" name="WaterT"&gt; Water tile.</t>
   </si>
   <si>
     <t>Void Grass</t>
@@ -149,10 +167,13 @@
     <t>Bubblia</t>
   </si>
   <si>
+    <t>LowHP</t>
+  </si>
+  <si>
     <t>pp_Bubble_Idle</t>
   </si>
   <si>
-    <t>Random effect from giving buff of HealUP, Regen and Shield. Buff level equal to ATK.</t>
+    <t>Random effect from giving buff of &lt;sprite="BuffC" name="HealUP"&gt; HealUP,&lt;sprite="BuffS" name="Regen"&gt; Regen and &lt;sprite="BuffS" name="Shield"&gt; Shield. Buff level equal to ATK.</t>
   </si>
   <si>
     <t>Gogo Grass</t>
@@ -161,7 +182,7 @@
     <t>pp_Gogo_Idle</t>
   </si>
   <si>
-    <t>Can apply Charm whose level equal to ATK every turn, controling random foe to hit other foes.</t>
+    <t>Can apply &lt;sprite="BuffN" name="Charm"&gt; Charm whose level equal to &lt;sprite="Common" name="ATK"&gt; ATK every turn, controling random foe to hit other foes.</t>
   </si>
   <si>
     <t>Alyfen</t>
@@ -173,7 +194,7 @@
     <t>pp_Alyfen_Idle</t>
   </si>
   <si>
-    <t>Revive dead character in range and apply 1 level Sunrise.</t>
+    <t>Revive dead character in range and apply 1 level &lt;sprite="BuffN" name="Sunrise"&gt; Sunrise.</t>
   </si>
   <si>
     <t>Motorhome</t>
@@ -182,7 +203,7 @@
     <t>pp_Motorhome_Idle</t>
   </si>
   <si>
-    <t>Giving buff of MOVUP. Buff level equal to ATK.</t>
+    <t>Giving buff of &lt;sprite="BuffC" name="MOVUP"&gt; MOVUP. Buff level equal to &lt;sprite="Common" name="ATK"&gt; ATK.</t>
   </si>
   <si>
     <t>Helper Grass</t>
@@ -191,7 +212,7 @@
     <t>pp_Helper_Idle</t>
   </si>
   <si>
-    <t>Random effect from giving buff of ATKUP, DEFUP, RESUP. Buff level according to ATK.</t>
+    <t>Random effect from giving buff of &lt;sprite="BuffC" name="ATKUP"&gt; ATKUP, &lt;sprite="BuffC" name="DEFUP"&gt; DEFUP, &lt;sprite="BuffC" name="RESUP"&gt; RESUP. Buff level according to &lt;sprite="Common" name="ATK"&gt; ATK.</t>
   </si>
   <si>
     <t>Maleficia</t>
@@ -203,7 +224,7 @@
     <t>pp_Maleficia_Idle</t>
   </si>
   <si>
-    <t>Increase ATK of units in same row by 1.</t>
+    <t>Increase &lt;sprite="Common" name="ATK"&gt; ATK of units in same row by 1.</t>
   </si>
   <si>
     <t>Beneficia</t>
@@ -212,7 +233,7 @@
     <t>pp_Beneficia_Idle</t>
   </si>
   <si>
-    <t>Increase DEF of units in same column by 1.</t>
+    <t>Increase &lt;sprite="Common" name="DEF"&gt; DEF of units in same column by 1.</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1196,8 +1217,10 @@
     <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
     <col min="8" max="8" width="23.3636363636364" customWidth="1"/>
-    <col min="11" max="11" width="18.1818181818182" customWidth="1"/>
-    <col min="12" max="12" width="68.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="24.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="16.1818181818182" customWidth="1"/>
+    <col min="13" max="13" width="18.1818181818182" customWidth="1"/>
+    <col min="14" max="14" width="68.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1205,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1233,63 +1256,75 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
+      <c r="N3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1304,30 +1339,33 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4">
         <v>3001</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1342,30 +1380,36 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>4001</v>
+      </c>
+      <c r="K5">
         <v>3101</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -1380,30 +1424,33 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6">
         <v>3201</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1418,30 +1465,33 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7">
         <v>3102</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -1456,30 +1506,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8">
         <v>3301</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -1494,30 +1547,33 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9">
         <v>3103</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>11</v>
@@ -1532,30 +1588,36 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>1009</v>
+      </c>
+      <c r="K10">
         <v>3104</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1570,30 +1632,33 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
         <v>3401</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1608,30 +1673,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
         <v>3105</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" t="s">
-        <v>51</v>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1646,30 +1714,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13">
         <v>3106</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="K13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2001</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1684,30 +1755,33 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
         <v>-1</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" t="s">
-        <v>58</v>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>2002</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1722,19 +1796,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15">
         <v>-1</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" t="s">
-        <v>61</v>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Plant.xlsx
+++ b/Assets/Excel/Plant.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>//Remark</t>
   </si>
@@ -35,7 +35,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name_EN</t>
+  </si>
+  <si>
+    <t>name_CN</t>
   </si>
   <si>
     <t>rarity</t>
@@ -71,7 +74,10 @@
     <t>pixelUrl</t>
   </si>
   <si>
-    <t>desc</t>
+    <t>desc_EN</t>
+  </si>
+  <si>
+    <t>desc_CN</t>
   </si>
   <si>
     <t>int</t>
@@ -92,6 +98,9 @@
     <t>Frogi</t>
   </si>
   <si>
+    <t>蛙蛙草</t>
+  </si>
+  <si>
     <t>Uncommon</t>
   </si>
   <si>
@@ -107,9 +116,15 @@
     <t>Attack the foe in range if character hit the foe with &lt;sprite="SkillType" name="NSkill"&gt; Normal Attack.</t>
   </si>
   <si>
+    <t>当角色使用 &lt;sprite="SkillType" name="NSkill"&gt; 普通攻击打击范围内敌人时，追击。</t>
+  </si>
+  <si>
     <t>Cookee</t>
   </si>
   <si>
+    <t>厨厨草</t>
+  </si>
+  <si>
     <t>Rare</t>
   </si>
   <si>
@@ -125,9 +140,15 @@
     <t>Apply &lt;sprite="BuffS" name="Burn"&gt; Burning whose level equal to &lt;sprite="Common" name="ATK"&gt; ATK every turn.</t>
   </si>
   <si>
+    <t>每回合附加层数相当于 &lt;sprite="Common" name="ATK"&gt; 攻击的 &lt;sprite="BuffS" name="Burn"&gt; 灼烧。</t>
+  </si>
+  <si>
     <t>Hero Grass</t>
   </si>
   <si>
+    <t>英雄草</t>
+  </si>
+  <si>
     <t>Legendary</t>
   </si>
   <si>
@@ -137,67 +158,103 @@
     <t>pp_Hero_Idle</t>
   </si>
   <si>
-    <t>Apply 5 &lt;sprite="BuffS" name="Hated"&gt; Hated to attract the attack from foes when battle starts.</t>
+    <t>Apply 5 &lt;sprite="BuffS" name="Hated"&gt; Hated to attract the attack when battle starts.</t>
+  </si>
+  <si>
+    <t>战斗开始时获取5层 &lt;sprite="BuffS" name="Hated"&gt; 众矢之的来吸引攻击。</t>
   </si>
   <si>
     <t>Unstable Grass</t>
   </si>
   <si>
+    <t>不稳定草</t>
+  </si>
+  <si>
     <t>Random</t>
   </si>
   <si>
     <t>pp_Unstable_Idle</t>
   </si>
   <si>
-    <t>Hit nearby tiles with electricity that can be transmitted by &lt;sprite="Tile" name="WaterT"&gt; Water tile.</t>
+    <t>Hit nearby tiles with electricity that can be transmitted by &lt;sprite="Tile" name="WaterT"&gt; Water tile every turn.</t>
+  </si>
+  <si>
+    <t>每回合在周围放电攻击，电可以被 &lt;sprite="Tile" name="WaterT"&gt; 水传导。</t>
   </si>
   <si>
     <t>Void Grass</t>
   </si>
   <si>
+    <t>虚无草</t>
+  </si>
+  <si>
     <t>SecondTurn</t>
   </si>
   <si>
     <t>pp_Void_Idle</t>
   </si>
   <si>
-    <t>Suicide bombing when the second turn start.</t>
+    <t>Suicide bombing and deal 500% &lt;sprite="Common" name="ATK"&gt; ATK damage when the second turn start.</t>
+  </si>
+  <si>
+    <t>第二回合开始时，自爆并造成 &lt;sprite="Common" name="ATK"&gt; 攻击X5的伤害。</t>
   </si>
   <si>
     <t>Bubblia</t>
   </si>
   <si>
+    <t>珍珠草</t>
+  </si>
+  <si>
     <t>LowHP</t>
   </si>
   <si>
     <t>pp_Bubble_Idle</t>
   </si>
   <si>
-    <t>Random effect from giving buff of &lt;sprite="BuffC" name="HealUP"&gt; HealUP,&lt;sprite="BuffS" name="Regen"&gt; Regen and &lt;sprite="BuffS" name="Shield"&gt; Shield. Buff level equal to ATK.</t>
+    <t>Random effect from giving buff of &lt;sprite="BuffC" name="HealUP"&gt; HealUP,&lt;sprite="BuffS" name="Regen"&gt; Regen and &lt;sprite="BuffS" name="Shield"&gt; Shield. Buff level equal to &lt;sprite="Common" name="ATK"&gt; ATK.</t>
+  </si>
+  <si>
+    <t>每回合随机附加层数相当于 &lt;sprite="Common" name="ATK"&gt; 攻击的 &lt;sprite="BuffC" name="HealUP"&gt; 治疗提升，&lt;sprite="BuffS" name="Regen"&gt; 再生或 &lt;sprite="BuffS" name="Shield"&gt; 护盾。</t>
   </si>
   <si>
     <t>Gogo Grass</t>
   </si>
   <si>
+    <t>脱衣舞男草</t>
+  </si>
+  <si>
     <t>pp_Gogo_Idle</t>
   </si>
   <si>
     <t>Can apply &lt;sprite="BuffN" name="Charm"&gt; Charm whose level equal to &lt;sprite="Common" name="ATK"&gt; ATK every turn, controling random foe to hit other foes.</t>
   </si>
   <si>
+    <t>每回合附加层数相当于 &lt;sprite="Common" name="ATK"&gt; 攻击的 &lt;sprite="BuffN" name="Charm"&gt; 魅惑来操控随机敌人。</t>
+  </si>
+  <si>
     <t>Alyfen</t>
   </si>
   <si>
+    <t>阿尔芬</t>
+  </si>
+  <si>
     <t>ActionEndDead</t>
   </si>
   <si>
     <t>pp_Alyfen_Idle</t>
   </si>
   <si>
-    <t>Revive dead character in range and apply 1 level &lt;sprite="BuffN" name="Sunrise"&gt; Sunrise.</t>
-  </si>
-  <si>
-    <t>Motorhome</t>
+    <t>Cost all &lt;sprite="Common" name="HP"&gt; HP to revive dead character in range and apply 1 level &lt;sprite="BuffN" name="Sunrise"&gt; Sunrise.</t>
+  </si>
+  <si>
+    <t>消耗所有 &lt;sprite="Common" name="HP"&gt; 生命，复活范围内的死亡角色并附加1层 &lt;sprite="BuffN" name="Sunrise"&gt; 东山再起。</t>
+  </si>
+  <si>
+    <t>Motorhoma</t>
+  </si>
+  <si>
+    <t>房车草</t>
   </si>
   <si>
     <t>pp_Motorhome_Idle</t>
@@ -206,18 +263,30 @@
     <t>Giving buff of &lt;sprite="BuffC" name="MOVUP"&gt; MOVUP. Buff level equal to &lt;sprite="Common" name="ATK"&gt; ATK.</t>
   </si>
   <si>
+    <t>每回合附加层数相当于 &lt;sprite="Common" name="ATK"&gt; 攻击的 &lt;sprite="BuffC" name="MOVUP"&gt; 移动力提升。</t>
+  </si>
+  <si>
     <t>Helper Grass</t>
   </si>
   <si>
+    <t>支援草</t>
+  </si>
+  <si>
     <t>pp_Helper_Idle</t>
   </si>
   <si>
     <t>Random effect from giving buff of &lt;sprite="BuffC" name="ATKUP"&gt; ATKUP, &lt;sprite="BuffC" name="DEFUP"&gt; DEFUP, &lt;sprite="BuffC" name="RESUP"&gt; RESUP. Buff level according to &lt;sprite="Common" name="ATK"&gt; ATK.</t>
   </si>
   <si>
+    <t>每回合随机附加层数相当于 &lt;sprite="Common" name="ATK"&gt; 攻击的 &lt;sprite="BuffC" name="ATKUP"&gt; 攻击提升, &lt;sprite="BuffC" name="DEFUP"&gt; 防御提升, &lt;sprite="BuffC" name="RESUP"&gt; 魔防提升。</t>
+  </si>
+  <si>
     <t>Maleficia</t>
   </si>
   <si>
+    <t>凶星草</t>
+  </si>
+  <si>
     <t>Passive</t>
   </si>
   <si>
@@ -227,13 +296,22 @@
     <t>Increase &lt;sprite="Common" name="ATK"&gt; ATK of units in same row by 1.</t>
   </si>
   <si>
+    <t>同行的单位 &lt;sprite="Common" name="ATK"&gt; 攻击+1。</t>
+  </si>
+  <si>
     <t>Beneficia</t>
   </si>
   <si>
+    <t>吉星草</t>
+  </si>
+  <si>
     <t>pp_Beneficia_Idle</t>
   </si>
   <si>
     <t>Increase &lt;sprite="Common" name="DEF"&gt; DEF of units in same column by 1.</t>
+  </si>
+  <si>
+    <t>同列的单位 &lt;sprite="Common" name="DEF"&gt; 防御+1。</t>
   </si>
 </sst>
 </file>
@@ -880,16 +958,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1206,21 +1284,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="23.3636363636364" customWidth="1"/>
-    <col min="9" max="9" width="24.9090909090909" customWidth="1"/>
-    <col min="10" max="10" width="16.1818181818182" customWidth="1"/>
-    <col min="13" max="13" width="18.1818181818182" customWidth="1"/>
-    <col min="14" max="14" width="68.4545454545455" customWidth="1"/>
+    <col min="2" max="3" width="15.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="16.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="23.3636363636364" customWidth="1"/>
+    <col min="10" max="10" width="24.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="16.1818181818182" customWidth="1"/>
+    <col min="14" max="14" width="18.1818181818182" customWidth="1"/>
+    <col min="15" max="16" width="68.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1228,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1250,568 +1328,652 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
       </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
         <v>3001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
         <v>4001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3101</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6">
         <v>3201</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7">
         <v>3102</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8">
         <v>3301</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
         <v>12</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
       <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9">
         <v>3103</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
         <v>1009</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3104</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>53</v>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
         <v>3401</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
         <v>12</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
       <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12">
         <v>3105</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
       <c r="N12" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
         <v>12</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
       <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13">
         <v>3106</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="M13" t="s">
-        <v>60</v>
-      </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2001</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
         <v>3</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>63</v>
-      </c>
       <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14">
         <v>-1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
-        <v>64</v>
-      </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>87</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2002</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
       <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15">
         <v>-1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>67</v>
-      </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
